--- a/src/components/owner/bulk-update/templates/Product Template .xlsx
+++ b/src/components/owner/bulk-update/templates/Product Template .xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
   <si>
     <t>Title</t>
   </si>
@@ -19,6 +19,9 @@
     <t>Price</t>
   </si>
   <si>
+    <t>pp</t>
+  </si>
+  <si>
     <t>Brand</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>weight</t>
+  </si>
+  <si>
+    <t>weight_pp</t>
   </si>
   <si>
     <t>weight_price</t>
@@ -500,13 +506,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="31.13"/>
-    <col customWidth="1" min="7" max="7" width="20.25"/>
-    <col customWidth="1" min="8" max="8" width="23.0"/>
-    <col customWidth="1" min="9" max="9" width="87.0"/>
-    <col customWidth="1" min="10" max="10" width="14.0"/>
-    <col customWidth="1" min="13" max="13" width="87.0"/>
-    <col customWidth="1" min="15" max="15" width="21.63"/>
-    <col customWidth="1" min="16" max="16" width="359.88"/>
+    <col customWidth="1" min="8" max="8" width="20.25"/>
+    <col customWidth="1" min="9" max="9" width="23.0"/>
+    <col customWidth="1" min="10" max="10" width="87.0"/>
+    <col customWidth="1" min="11" max="11" width="14.0"/>
+    <col customWidth="1" min="15" max="15" width="87.0"/>
+    <col customWidth="1" min="17" max="17" width="21.63"/>
+    <col customWidth="1" min="18" max="18" width="359.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -558,136 +564,154 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4">
         <v>700.0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="b">
+      <c r="C2" s="4">
+        <v>800.0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="b">
+      <c r="F2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="b">
+      <c r="G2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="K2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="4">
+        <v>23</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="4">
         <v>400.0</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="N2" s="4">
+        <v>400.0</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7"/>
-      <c r="I3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>29</v>
+      <c r="J3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7"/>
-      <c r="I4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>32</v>
+      <c r="J4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7"/>
-      <c r="I5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="9">
+      <c r="J5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="9">
         <v>500.0</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="11"/>
+      <c r="N5" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" s="7"/>
-      <c r="M6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="11"/>
+      <c r="O6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="7"/>
-      <c r="M7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="11"/>
+      <c r="O7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="11"/>
     </row>
     <row r="8">
       <c r="A8" s="7"/>
-      <c r="M8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="11"/>
+      <c r="O8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="7"/>
-      <c r="K9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="L9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="9">
         <v>700.0</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="11"/>
+      <c r="N9" s="9">
+        <v>700.0</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="11"/>
     </row>
     <row r="10">
       <c r="A10" s="12"/>
@@ -702,142 +726,156 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="M10" s="13"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="15"/>
+      <c r="O10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4">
         <v>700.0</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4" t="b">
+      <c r="C11" s="4">
+        <v>800.0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="b">
+      <c r="F11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F11" s="4" t="b">
+      <c r="G11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="J11" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="K11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="4">
+        <v>23</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="4">
         <v>400.0</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="6" t="s">
+      <c r="N11" s="4">
+        <v>400.0</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7"/>
-      <c r="I12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>29</v>
+      <c r="J12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7"/>
-      <c r="I13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>32</v>
+      <c r="J13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7"/>
-      <c r="I14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="9">
+      <c r="J14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="9">
         <v>500.0</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="11"/>
+      <c r="N14" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" s="7"/>
-      <c r="M15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="11"/>
+      <c r="O15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" s="7"/>
-      <c r="M16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="11"/>
+      <c r="O16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="11"/>
     </row>
     <row r="17">
       <c r="A17" s="7"/>
-      <c r="M17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" s="11"/>
+      <c r="O17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" s="11"/>
     </row>
     <row r="18">
       <c r="A18" s="7"/>
-      <c r="K18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="9">
+      <c r="L18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="9">
         <v>700.0</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="11"/>
+      <c r="N18" s="9">
+        <v>700.0</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="11"/>
     </row>
     <row r="19">
       <c r="A19" s="12"/>
@@ -852,142 +890,156 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
-      <c r="M19" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="15"/>
+      <c r="O19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="15"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4">
         <v>700.0</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="4" t="b">
+      <c r="C20" s="4">
+        <v>800.0</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="4" t="b">
+      <c r="F20" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F20" s="4" t="b">
+      <c r="G20" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="J20" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="K20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="4">
+        <v>23</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="4">
         <v>400.0</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="6" t="s">
+      <c r="N20" s="4">
+        <v>400.0</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7"/>
-      <c r="I21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>29</v>
+      <c r="J21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7"/>
-      <c r="I22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>32</v>
+      <c r="J22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7"/>
-      <c r="I23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="9">
+      <c r="J23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="9">
         <v>500.0</v>
       </c>
-      <c r="M23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P23" s="11"/>
+      <c r="N23" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R23" s="11"/>
     </row>
     <row r="24">
       <c r="A24" s="7"/>
-      <c r="M24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P24" s="11"/>
+      <c r="O24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R24" s="11"/>
     </row>
     <row r="25">
       <c r="A25" s="7"/>
-      <c r="M25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P25" s="11"/>
+      <c r="O25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" s="11"/>
     </row>
     <row r="26">
       <c r="A26" s="7"/>
-      <c r="M26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26" s="11"/>
+      <c r="O26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R26" s="11"/>
     </row>
     <row r="27">
       <c r="A27" s="7"/>
-      <c r="K27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="9">
+      <c r="L27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="9">
         <v>700.0</v>
       </c>
-      <c r="M27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P27" s="11"/>
+      <c r="N27" s="9">
+        <v>700.0</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R27" s="11"/>
     </row>
     <row r="28">
       <c r="A28" s="12"/>
@@ -1002,142 +1054,156 @@
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
-      <c r="M28" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="M28" s="13"/>
       <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="15"/>
+      <c r="O28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="15"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B29" s="4">
         <v>700.0</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="4" t="b">
+      <c r="C29" s="4">
+        <v>800.0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E29" s="4" t="b">
+      <c r="F29" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F29" s="4" t="b">
+      <c r="G29" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="J29" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="K29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="4">
+        <v>23</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="4">
         <v>400.0</v>
       </c>
-      <c r="M29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29" s="6" t="s">
+      <c r="N29" s="4">
+        <v>400.0</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7"/>
-      <c r="I30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P30" s="10" t="s">
-        <v>29</v>
+      <c r="J30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="I31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P31" s="10" t="s">
-        <v>32</v>
+      <c r="J31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
-      <c r="I32" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L32" s="9">
+      <c r="J32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="9">
         <v>500.0</v>
       </c>
-      <c r="M32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P32" s="11"/>
+      <c r="N32" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R32" s="11"/>
     </row>
     <row r="33">
       <c r="A33" s="7"/>
-      <c r="M33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="11"/>
+      <c r="O33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R33" s="11"/>
     </row>
     <row r="34">
       <c r="A34" s="7"/>
-      <c r="M34" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P34" s="11"/>
+      <c r="O34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" s="11"/>
     </row>
     <row r="35">
       <c r="A35" s="7"/>
-      <c r="M35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P35" s="11"/>
+      <c r="O35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" s="11"/>
     </row>
     <row r="36">
       <c r="A36" s="7"/>
-      <c r="K36" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L36" s="9">
+      <c r="L36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" s="9">
         <v>700.0</v>
       </c>
-      <c r="M36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P36" s="11"/>
+      <c r="N36" s="9">
+        <v>700.0</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R36" s="11"/>
     </row>
     <row r="37">
       <c r="A37" s="12"/>
@@ -1152,67 +1218,69 @@
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
-      <c r="M37" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="M37" s="13"/>
       <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="15"/>
+      <c r="O37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I2"/>
-    <hyperlink r:id="rId2" ref="M2"/>
-    <hyperlink r:id="rId3" ref="I3"/>
-    <hyperlink r:id="rId4" ref="M3"/>
-    <hyperlink r:id="rId5" ref="I4"/>
-    <hyperlink r:id="rId6" ref="M4"/>
-    <hyperlink r:id="rId7" ref="I5"/>
-    <hyperlink r:id="rId8" ref="M5"/>
-    <hyperlink r:id="rId9" ref="M6"/>
-    <hyperlink r:id="rId10" ref="M7"/>
-    <hyperlink r:id="rId11" ref="M8"/>
-    <hyperlink r:id="rId12" ref="M9"/>
-    <hyperlink r:id="rId13" ref="M10"/>
-    <hyperlink r:id="rId14" ref="I11"/>
-    <hyperlink r:id="rId15" ref="M11"/>
-    <hyperlink r:id="rId16" ref="I12"/>
-    <hyperlink r:id="rId17" ref="M12"/>
-    <hyperlink r:id="rId18" ref="I13"/>
-    <hyperlink r:id="rId19" ref="M13"/>
-    <hyperlink r:id="rId20" ref="I14"/>
-    <hyperlink r:id="rId21" ref="M14"/>
-    <hyperlink r:id="rId22" ref="M15"/>
-    <hyperlink r:id="rId23" ref="M16"/>
-    <hyperlink r:id="rId24" ref="M17"/>
-    <hyperlink r:id="rId25" ref="M18"/>
-    <hyperlink r:id="rId26" ref="M19"/>
-    <hyperlink r:id="rId27" ref="I20"/>
-    <hyperlink r:id="rId28" ref="M20"/>
-    <hyperlink r:id="rId29" ref="I21"/>
-    <hyperlink r:id="rId30" ref="M21"/>
-    <hyperlink r:id="rId31" ref="I22"/>
-    <hyperlink r:id="rId32" ref="M22"/>
-    <hyperlink r:id="rId33" ref="I23"/>
-    <hyperlink r:id="rId34" ref="M23"/>
-    <hyperlink r:id="rId35" ref="M24"/>
-    <hyperlink r:id="rId36" ref="M25"/>
-    <hyperlink r:id="rId37" ref="M26"/>
-    <hyperlink r:id="rId38" ref="M27"/>
-    <hyperlink r:id="rId39" ref="M28"/>
-    <hyperlink r:id="rId40" ref="I29"/>
-    <hyperlink r:id="rId41" ref="M29"/>
-    <hyperlink r:id="rId42" ref="I30"/>
-    <hyperlink r:id="rId43" ref="M30"/>
-    <hyperlink r:id="rId44" ref="I31"/>
-    <hyperlink r:id="rId45" ref="M31"/>
-    <hyperlink r:id="rId46" ref="I32"/>
-    <hyperlink r:id="rId47" ref="M32"/>
-    <hyperlink r:id="rId48" ref="M33"/>
-    <hyperlink r:id="rId49" ref="M34"/>
-    <hyperlink r:id="rId50" ref="M35"/>
-    <hyperlink r:id="rId51" ref="M36"/>
-    <hyperlink r:id="rId52" ref="M37"/>
+    <hyperlink r:id="rId1" ref="J2"/>
+    <hyperlink r:id="rId2" ref="O2"/>
+    <hyperlink r:id="rId3" ref="J3"/>
+    <hyperlink r:id="rId4" ref="O3"/>
+    <hyperlink r:id="rId5" ref="J4"/>
+    <hyperlink r:id="rId6" ref="O4"/>
+    <hyperlink r:id="rId7" ref="J5"/>
+    <hyperlink r:id="rId8" ref="O5"/>
+    <hyperlink r:id="rId9" ref="O6"/>
+    <hyperlink r:id="rId10" ref="O7"/>
+    <hyperlink r:id="rId11" ref="O8"/>
+    <hyperlink r:id="rId12" ref="O9"/>
+    <hyperlink r:id="rId13" ref="O10"/>
+    <hyperlink r:id="rId14" ref="J11"/>
+    <hyperlink r:id="rId15" ref="O11"/>
+    <hyperlink r:id="rId16" ref="J12"/>
+    <hyperlink r:id="rId17" ref="O12"/>
+    <hyperlink r:id="rId18" ref="J13"/>
+    <hyperlink r:id="rId19" ref="O13"/>
+    <hyperlink r:id="rId20" ref="J14"/>
+    <hyperlink r:id="rId21" ref="O14"/>
+    <hyperlink r:id="rId22" ref="O15"/>
+    <hyperlink r:id="rId23" ref="O16"/>
+    <hyperlink r:id="rId24" ref="O17"/>
+    <hyperlink r:id="rId25" ref="O18"/>
+    <hyperlink r:id="rId26" ref="O19"/>
+    <hyperlink r:id="rId27" ref="J20"/>
+    <hyperlink r:id="rId28" ref="O20"/>
+    <hyperlink r:id="rId29" ref="J21"/>
+    <hyperlink r:id="rId30" ref="O21"/>
+    <hyperlink r:id="rId31" ref="J22"/>
+    <hyperlink r:id="rId32" ref="O22"/>
+    <hyperlink r:id="rId33" ref="J23"/>
+    <hyperlink r:id="rId34" ref="O23"/>
+    <hyperlink r:id="rId35" ref="O24"/>
+    <hyperlink r:id="rId36" ref="O25"/>
+    <hyperlink r:id="rId37" ref="O26"/>
+    <hyperlink r:id="rId38" ref="O27"/>
+    <hyperlink r:id="rId39" ref="O28"/>
+    <hyperlink r:id="rId40" ref="J29"/>
+    <hyperlink r:id="rId41" ref="O29"/>
+    <hyperlink r:id="rId42" ref="J30"/>
+    <hyperlink r:id="rId43" ref="O30"/>
+    <hyperlink r:id="rId44" ref="J31"/>
+    <hyperlink r:id="rId45" ref="O31"/>
+    <hyperlink r:id="rId46" ref="J32"/>
+    <hyperlink r:id="rId47" ref="O32"/>
+    <hyperlink r:id="rId48" ref="O33"/>
+    <hyperlink r:id="rId49" ref="O34"/>
+    <hyperlink r:id="rId50" ref="O35"/>
+    <hyperlink r:id="rId51" ref="O36"/>
+    <hyperlink r:id="rId52" ref="O37"/>
   </hyperlinks>
   <drawing r:id="rId53"/>
 </worksheet>
